--- a/upload/0523事业双一流笔试准考证数据.xlsx
+++ b/upload/0523事业双一流笔试准考证数据.xlsx
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郑健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33032121254879</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金武斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33032578946932</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +97,14 @@
   </si>
   <si>
     <t>15478963265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹海莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘群毅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -531,22 +531,22 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -556,22 +556,22 @@
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
